--- a/static/trip_raw_data.xlsx
+++ b/static/trip_raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\saved-st\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631A78FC-79D4-48F8-B8B5-338541452B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921450C9-87B2-4F4C-8D8B-406A4F95F49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{51A51230-BA36-46CB-A27D-FB0A16987355}"/>
   </bookViews>
@@ -38,17 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="172">
   <si>
     <t>TRIP0001</t>
   </si>
   <si>
-    <t>Consignor</t>
-  </si>
-  <si>
-    <t>Consignee</t>
-  </si>
-  <si>
     <t>CTT</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
     <t>ACTION000</t>
   </si>
   <si>
-    <t>Step 0: Move from CTT_TP_1 to pick up chassis at CTT_SP_1</t>
-  </si>
-  <si>
     <t>move</t>
   </si>
   <si>
@@ -70,12 +61,6 @@
     <t>CTT_SP_1</t>
   </si>
   <si>
-    <t>2024-01-01T06:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-01-01T06:10:00Z</t>
-  </si>
-  <si>
     <t>TW000</t>
   </si>
   <si>
@@ -85,208 +70,490 @@
     <t>ACTION001</t>
   </si>
   <si>
+    <t>attachTransportEquipment</t>
+  </si>
+  <si>
+    <t>A trailer</t>
+  </si>
+  <si>
+    <t>123-ABC</t>
+  </si>
+  <si>
+    <t>Semitrailer Parking 1</t>
+  </si>
+  <si>
+    <t>ACTION002</t>
+  </si>
+  <si>
+    <t>ACTION003</t>
+  </si>
+  <si>
+    <t>ACTION004</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>DetachTransportEquipment</t>
+  </si>
+  <si>
+    <t>ACTION005</t>
+  </si>
+  <si>
+    <t>CTT_LLP_1</t>
+  </si>
+  <si>
+    <t>TBL_DG_01</t>
+  </si>
+  <si>
+    <t>TW001</t>
+  </si>
+  <si>
+    <t>TW002</t>
+  </si>
+  <si>
+    <t>TW003</t>
+  </si>
+  <si>
+    <t>TW004</t>
+  </si>
+  <si>
+    <t>TW005</t>
+  </si>
+  <si>
+    <t>Attach trailer before certain time</t>
+  </si>
+  <si>
+    <t>Arrive at CTT_LLP_1 before certain time</t>
+  </si>
+  <si>
+    <t>Load container at CTT_LLP_1 before certain time</t>
+  </si>
+  <si>
+    <t>Arrive at CTT_SP_1 before certain time</t>
+  </si>
+  <si>
+    <t>Loading Lane Position 1</t>
+  </si>
+  <si>
+    <t>Step 3: Load container</t>
+  </si>
+  <si>
+    <t>Detach trailer before certain time</t>
+  </si>
+  <si>
+    <t>TripID</t>
+  </si>
+  <si>
+    <t>TripName</t>
+  </si>
+  <si>
+    <t>VehicleID</t>
+  </si>
+  <si>
+    <t>VehicleName</t>
+  </si>
+  <si>
+    <t>AV1</t>
+  </si>
+  <si>
+    <t>Autonomous Vehicle 1</t>
+  </si>
+  <si>
+    <t>ActorID</t>
+  </si>
+  <si>
+    <t>ActorName</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>A0001</t>
+  </si>
+  <si>
+    <t>A0002</t>
+  </si>
+  <si>
+    <t>ActionID</t>
+  </si>
+  <si>
+    <t>ActionName</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>SequenceNumber</t>
+  </si>
+  <si>
+    <t>FromLocationID</t>
+  </si>
+  <si>
+    <t>ToLocationID</t>
+  </si>
+  <si>
+    <t>TransportEquipmentID</t>
+  </si>
+  <si>
+    <t>ConstraintStartTime</t>
+  </si>
+  <si>
+    <t>ConstraintEndTime</t>
+  </si>
+  <si>
+    <t>ConstraintID</t>
+  </si>
+  <si>
+    <t>ConstraintName</t>
+  </si>
+  <si>
+    <t>LocationID</t>
+  </si>
+  <si>
+    <t>LocationName</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>EquipmentID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>LicensePlate</t>
+  </si>
+  <si>
+    <t>Enforceability</t>
+  </si>
+  <si>
+    <t>ConsignmentID</t>
+  </si>
+  <si>
+    <t>CONT986</t>
+  </si>
+  <si>
+    <t>2024-02-04T06:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-02-04T06:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-02-04T06:20:00Z</t>
+  </si>
+  <si>
+    <t>2024-02-04T06:25:00Z</t>
+  </si>
+  <si>
+    <t>2024-02-04T06:35:00Z</t>
+  </si>
+  <si>
+    <t>Arrive at Timberland between certain times</t>
+  </si>
+  <si>
+    <t>TRIP0002</t>
+  </si>
+  <si>
+    <t>Step 0: Move</t>
+  </si>
+  <si>
+    <t>Step 2: Move</t>
+  </si>
+  <si>
+    <t>Step 4: Move</t>
+  </si>
+  <si>
+    <t>CTT_SP_2</t>
+  </si>
+  <si>
+    <t>CHASSIS001</t>
+  </si>
+  <si>
+    <t>CHASSIS002</t>
+  </si>
+  <si>
+    <t>TW006</t>
+  </si>
+  <si>
+    <t>TW007</t>
+  </si>
+  <si>
+    <t>TW008</t>
+  </si>
+  <si>
+    <t>TW009</t>
+  </si>
+  <si>
+    <t>TW010</t>
+  </si>
+  <si>
+    <t>TW011</t>
+  </si>
+  <si>
+    <t>Tractor Parking 1</t>
+  </si>
+  <si>
+    <t>Semitrailer Parking 2</t>
+  </si>
+  <si>
+    <t>ACTION006</t>
+  </si>
+  <si>
+    <t>ACTION007</t>
+  </si>
+  <si>
+    <t>ACTION008</t>
+  </si>
+  <si>
+    <t>ACTION009</t>
+  </si>
+  <si>
+    <t>ACTION010</t>
+  </si>
+  <si>
+    <t>ACTION011</t>
+  </si>
+  <si>
+    <t>Bleckmann</t>
+  </si>
+  <si>
+    <t>BLK_DG_01</t>
+  </si>
+  <si>
+    <t>TBL Docking Gate 1</t>
+  </si>
+  <si>
+    <t>BLK Docking Gate 1</t>
+  </si>
+  <si>
+    <t>BOL_DG_01</t>
+  </si>
+  <si>
+    <t>BOL Docking Gate 1</t>
+  </si>
+  <si>
+    <t>CONT985</t>
+  </si>
+  <si>
+    <t>Trip CTT-Timberland</t>
+  </si>
+  <si>
+    <t>Trip Timberland-CTT-Bleckmann</t>
+  </si>
+  <si>
+    <t>2024-02-04T06:42:00Z</t>
+  </si>
+  <si>
+    <t>CTT_LLP_2</t>
+  </si>
+  <si>
+    <t>2024-02-04T06:37:00Z</t>
+  </si>
+  <si>
+    <t>2024-02-04T06:59:00Z</t>
+  </si>
+  <si>
+    <t>2024-02-04T06:52:00Z</t>
+  </si>
+  <si>
+    <t>2024-02-04T06:47:00Z</t>
+  </si>
+  <si>
+    <t>Trip Bleckmann-CTT-Bolk</t>
+  </si>
+  <si>
+    <t>TRIP0003</t>
+  </si>
+  <si>
+    <t>TRIP0004</t>
+  </si>
+  <si>
+    <t>Trip Bolk-CTT</t>
+  </si>
+  <si>
+    <t>A0003</t>
+  </si>
+  <si>
+    <t>A0004</t>
+  </si>
+  <si>
+    <t>Bolk</t>
+  </si>
+  <si>
+    <t>ACTION012</t>
+  </si>
+  <si>
+    <t>ACTION013</t>
+  </si>
+  <si>
+    <t>ACTION014</t>
+  </si>
+  <si>
+    <t>ACTION015</t>
+  </si>
+  <si>
+    <t>ACTION016</t>
+  </si>
+  <si>
+    <t>ACTION017</t>
+  </si>
+  <si>
+    <t>ACTION018</t>
+  </si>
+  <si>
+    <t>ACTION019</t>
+  </si>
+  <si>
+    <t>ACTION020</t>
+  </si>
+  <si>
+    <t>ACTION021</t>
+  </si>
+  <si>
+    <t>ACTION022</t>
+  </si>
+  <si>
+    <t>BOL_DG_03</t>
+  </si>
+  <si>
+    <t>CHASSIS003</t>
+  </si>
+  <si>
+    <t>CHASSIS004</t>
+  </si>
+  <si>
+    <t>CTT_SP_3</t>
+  </si>
+  <si>
+    <t>CONT981</t>
+  </si>
+  <si>
+    <t>Step 1: Attach empty chassis</t>
+  </si>
+  <si>
+    <t>Step 6: Detach full chassis</t>
+  </si>
+  <si>
+    <t>TW012</t>
+  </si>
+  <si>
+    <t>TW013</t>
+  </si>
+  <si>
+    <t>TW014</t>
+  </si>
+  <si>
+    <t>TW015</t>
+  </si>
+  <si>
+    <t>TW016</t>
+  </si>
+  <si>
+    <t>TW017</t>
+  </si>
+  <si>
+    <t>TW018</t>
+  </si>
+  <si>
+    <t>TW019</t>
+  </si>
+  <si>
+    <t>TW020</t>
+  </si>
+  <si>
+    <t>TW021</t>
+  </si>
+  <si>
+    <t>TW022</t>
+  </si>
+  <si>
+    <t>enforced</t>
+  </si>
+  <si>
+    <t>2024-02-04T07:04:00Z</t>
+  </si>
+  <si>
+    <t>2024-02-04T07:09:00Z</t>
+  </si>
+  <si>
+    <t>2024-02-04T07:14:00Z</t>
+  </si>
+  <si>
+    <t>2024-02-04T07:19:00Z</t>
+  </si>
+  <si>
+    <t>2024-02-04T07:25:00Z</t>
+  </si>
+  <si>
+    <t>2024-02-04T07:30:00Z</t>
+  </si>
+  <si>
+    <t>2024-02-04T07:32:00Z</t>
+  </si>
+  <si>
+    <t>2024-02-04T07:34:00Z</t>
+  </si>
+  <si>
+    <t>2024-02-04T07:36:00Z</t>
+  </si>
+  <si>
+    <t>consignor</t>
+  </si>
+  <si>
+    <t>consignee</t>
+  </si>
+  <si>
+    <t>Loading Lane Position 2</t>
+  </si>
+  <si>
+    <t>BOL_DG_02</t>
+  </si>
+  <si>
+    <t>BOL Docking Gate 2</t>
+  </si>
+  <si>
+    <t>CHASSIS005</t>
+  </si>
+  <si>
+    <t>CHASSIS006</t>
+  </si>
+  <si>
+    <t>CHASSIS007</t>
+  </si>
+  <si>
+    <t>124-ABC</t>
+  </si>
+  <si>
+    <t>125-ABC</t>
+  </si>
+  <si>
+    <t>126-ABC</t>
+  </si>
+  <si>
+    <t>127-ABC</t>
+  </si>
+  <si>
+    <t>128-ABC</t>
+  </si>
+  <si>
+    <t>129-ABC</t>
+  </si>
+  <si>
+    <t>CONT983</t>
+  </si>
+  <si>
+    <t>BOL Docking Gate 3</t>
+  </si>
+  <si>
     <t>Step 1: Attach chassis</t>
   </si>
   <si>
-    <t>attachTransportEquipment</t>
-  </si>
-  <si>
-    <t>TRAILER001</t>
-  </si>
-  <si>
-    <t>A trailer</t>
-  </si>
-  <si>
-    <t>123-ABC</t>
-  </si>
-  <si>
-    <t>Semitrailer Parking 1</t>
-  </si>
-  <si>
-    <t>ACTION002</t>
-  </si>
-  <si>
-    <t>ACTION003</t>
-  </si>
-  <si>
-    <t>ACTION004</t>
-  </si>
-  <si>
-    <t>load</t>
-  </si>
-  <si>
-    <t>DetachTransportEquipment</t>
-  </si>
-  <si>
-    <t>ACTION005</t>
-  </si>
-  <si>
-    <t>Step 6: Detach chassis</t>
-  </si>
-  <si>
-    <t>CTT_LLP_1</t>
-  </si>
-  <si>
-    <t>TBL_DG_01</t>
-  </si>
-  <si>
-    <t>TW001</t>
-  </si>
-  <si>
-    <t>TW002</t>
-  </si>
-  <si>
-    <t>TW003</t>
-  </si>
-  <si>
-    <t>TW004</t>
-  </si>
-  <si>
-    <t>TW005</t>
-  </si>
-  <si>
-    <t>Attach trailer before certain time</t>
-  </si>
-  <si>
-    <t>2024-01-01T06:15:00Z</t>
-  </si>
-  <si>
-    <t>2024-01-01T06:20:00Z</t>
-  </si>
-  <si>
-    <t>2024-01-01T06:25:00Z</t>
-  </si>
-  <si>
-    <t>2024-01-01T06:35:00Z</t>
-  </si>
-  <si>
-    <t>Arrive at CTT_LLP_1 before certain time</t>
-  </si>
-  <si>
-    <t>Load container at CTT_LLP_1 before certain time</t>
-  </si>
-  <si>
-    <t>Step 4: Move from CTT to Timberland</t>
-  </si>
-  <si>
-    <t>Arrive at CTT_SP_1 before certain time</t>
-  </si>
-  <si>
-    <t>Step 2: Move from CTT_SP_1 to loading lane CTT_LLP_1</t>
-  </si>
-  <si>
-    <t>Loading Lane Position 1</t>
-  </si>
-  <si>
-    <t>Step 3: Load container</t>
-  </si>
-  <si>
-    <t>Docking Gate 1</t>
-  </si>
-  <si>
-    <t>Arrive at Timberland before certain time</t>
-  </si>
-  <si>
-    <t>Detach trailer before certain time</t>
-  </si>
-  <si>
-    <t>TripID</t>
-  </si>
-  <si>
-    <t>TripName</t>
-  </si>
-  <si>
-    <t>Example trip</t>
-  </si>
-  <si>
-    <t>VehicleID</t>
-  </si>
-  <si>
-    <t>VehicleName</t>
-  </si>
-  <si>
-    <t>AV1</t>
-  </si>
-  <si>
-    <t>Autonomous Vehicle 1</t>
-  </si>
-  <si>
-    <t>ActorID</t>
-  </si>
-  <si>
-    <t>ActorName</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>A0001</t>
-  </si>
-  <si>
-    <t>A0002</t>
-  </si>
-  <si>
-    <t>ActionID</t>
-  </si>
-  <si>
-    <t>ActionName</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>SequenceNumber</t>
-  </si>
-  <si>
-    <t>FromLocationID</t>
-  </si>
-  <si>
-    <t>ToLocationID</t>
-  </si>
-  <si>
-    <t>TransportEquipmentID</t>
-  </si>
-  <si>
-    <t>ConstraintStartTime</t>
-  </si>
-  <si>
-    <t>ConstraintEndTime</t>
-  </si>
-  <si>
-    <t>ConstraintID</t>
-  </si>
-  <si>
-    <t>ConstraintName</t>
-  </si>
-  <si>
-    <t>LocationID</t>
-  </si>
-  <si>
-    <t>LocationName</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>EquipmentID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>LicensePlate</t>
-  </si>
-  <si>
-    <t>Enforceability</t>
-  </si>
-  <si>
-    <t>ConsignmentID</t>
-  </si>
-  <si>
-    <t>CONT986</t>
+    <t>Step 3: Detach chassis</t>
   </si>
 </sst>
 </file>
@@ -679,21 +946,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0D3459-6EEC-4C12-BB5E-630F1C6143D4}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.3125" customWidth="1"/>
     <col min="4" max="4" width="18.3125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="18.3125" customWidth="1"/>
     <col min="8" max="8" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83984375" customWidth="1"/>
+    <col min="9" max="9" width="15.3125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.3125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="46.83984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5234375" bestFit="1" customWidth="1"/>
@@ -708,64 +975,64 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -773,230 +1040,882 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="N3" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="R3" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="T3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
         <v>28</v>
       </c>
-      <c r="P4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>40</v>
-      </c>
       <c r="R4" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="S4" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="T4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="s">
         <v>24</v>
       </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="P5" t="s">
-        <v>32</v>
-      </c>
       <c r="Q5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="S5" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="T5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="T6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" t="s">
+        <v>70</v>
+      </c>
+      <c r="T8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" t="s">
+        <v>104</v>
+      </c>
+      <c r="T9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S10" t="s">
+        <v>102</v>
+      </c>
+      <c r="T10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="P7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" t="s">
+        <v>82</v>
+      </c>
+      <c r="R11" t="s">
+        <v>69</v>
+      </c>
+      <c r="S11" t="s">
+        <v>107</v>
+      </c>
+      <c r="T11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" t="s">
+        <v>105</v>
+      </c>
+      <c r="T12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="N13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" t="s">
+        <v>106</v>
+      </c>
+      <c r="S13" t="s">
+        <v>105</v>
+      </c>
+      <c r="T13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="S7" t="s">
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="T7" t="s">
-        <v>13</v>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" t="s">
+        <v>94</v>
+      </c>
+      <c r="M14" t="s">
+        <v>129</v>
+      </c>
+      <c r="P14" t="s">
+        <v>133</v>
+      </c>
+      <c r="R14" t="s">
+        <v>106</v>
+      </c>
+      <c r="S14" t="s">
+        <v>105</v>
+      </c>
+      <c r="T14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15" t="s">
+        <v>127</v>
+      </c>
+      <c r="P15" t="s">
+        <v>134</v>
+      </c>
+      <c r="R15" t="s">
+        <v>106</v>
+      </c>
+      <c r="S15" t="s">
+        <v>145</v>
+      </c>
+      <c r="T15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" t="s">
+        <v>135</v>
+      </c>
+      <c r="R16" t="s">
+        <v>106</v>
+      </c>
+      <c r="S16" t="s">
+        <v>146</v>
+      </c>
+      <c r="T16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P17" t="s">
+        <v>136</v>
+      </c>
+      <c r="R17" t="s">
+        <v>106</v>
+      </c>
+      <c r="S17" t="s">
+        <v>147</v>
+      </c>
+      <c r="T17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" t="s">
+        <v>137</v>
+      </c>
+      <c r="R18" t="s">
+        <v>106</v>
+      </c>
+      <c r="S18" t="s">
+        <v>149</v>
+      </c>
+      <c r="T18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" t="s">
+        <v>138</v>
+      </c>
+      <c r="R19" t="s">
+        <v>148</v>
+      </c>
+      <c r="S19" t="s">
+        <v>149</v>
+      </c>
+      <c r="T19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" t="s">
+        <v>97</v>
+      </c>
+      <c r="M20" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" t="s">
+        <v>139</v>
+      </c>
+      <c r="R20" t="s">
+        <v>148</v>
+      </c>
+      <c r="S20" t="s">
+        <v>149</v>
+      </c>
+      <c r="T20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="N21" t="s">
+        <v>128</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="P21" t="s">
+        <v>140</v>
+      </c>
+      <c r="R21" t="s">
+        <v>148</v>
+      </c>
+      <c r="S21" t="s">
+        <v>150</v>
+      </c>
+      <c r="T21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" t="s">
+        <v>141</v>
+      </c>
+      <c r="R22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S22" t="s">
+        <v>151</v>
+      </c>
+      <c r="T22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s">
+        <v>171</v>
+      </c>
+      <c r="N23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" t="s">
+        <v>142</v>
+      </c>
+      <c r="R23" t="s">
+        <v>148</v>
+      </c>
+      <c r="S23" t="s">
+        <v>152</v>
+      </c>
+      <c r="T23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" t="s">
+        <v>143</v>
+      </c>
+      <c r="R24" t="s">
+        <v>149</v>
+      </c>
+      <c r="S24" t="s">
+        <v>153</v>
+      </c>
+      <c r="T24" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1007,39 +1926,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F84F6EF-B644-4476-9785-BDC00A4C9C6F}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.5234375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.20703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2">
         <v>52.321449635852801</v>
@@ -1050,10 +1970,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>52.321449635852801</v>
@@ -1064,75 +1984,228 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2">
-        <v>52.322663887548799</v>
+        <v>52.321734320351297</v>
       </c>
       <c r="D4" s="2">
-        <v>6.6307002771306598</v>
+        <v>6.6317899817477901</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
+        <v>52.322663887548799</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.6307002771306598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="2">
+        <v>52.322488029123797</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.6307603957829597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2">
         <v>52.318399947781501</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D7" s="2">
         <v>6.6627188459584898</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="2">
+        <v>52.3190415099765</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.6414210657324704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="2">
+        <v>52.3217964912184</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6.63325033523122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="2">
+        <v>52.321830784332903</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.6332386096631497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="2">
+        <v>52.321865077009797</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.6332268858890897</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF37A17-E4FC-441E-8697-6605758CC1F5}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.20703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>